--- a/Question_Sets/Software skills/AutoCAD.xlsx
+++ b/Question_Sets/Software skills/AutoCAD.xlsx
@@ -16,23 +16,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You’re tasked with rotating an object about point C from position A to position B in AutoCAD with all settings set to default. After selecting the rotate command and choosing point C as the base point, what rotation angle should you specify to achieve the desired result?', 'ques_type': 2, 'options': ['90 degree', '-90 degree', '270 degree', 'Both -90 degree and 270 degree'], 'score': 'Both -90 degree and 270 degree'}, {'title': 'You’re assigned to draw a set of lines, as shown below. Which command sequence would you use if the dynamic mode is ON?', 'ques_type': 2, 'options': ['Type LINE, press Enter, type ‘2,3’, press Enter, type ‘14,17’, press Enter, type ‘18,7’, press Enter', 'Type LINE, press Enter, type ‘2,3’, press Enter, type ‘12,14’, press Enter, type ‘4,-10’, press Enter', 'Type LINE, press Enter, type ‘2,3’, press Enter, type ‘@14,17’, press Enter, type ‘@18,7’, press Enter', 'Type LINE, press Enter, type ‘2,3’, press Enter, type ‘#14,17’, press Enter, type ‘#18,7’, press Enter', 'Second and fourth options'], 'score': 'Second and fourth options'}, {'title': 'You need to create a symmetrical window design in your AutoCAD drawing. The design involves drawing half of the window and duplicating it to the other side.\xa0Which tool is most appropriate for this task?', 'ques_type': 2, 'options': ['Offset Tool', 'Mirror Tool', 'Trim Tool', 'Rotate Tool'], 'score': 'Mirror Tool'}, {'title': 'You need to create a curved pipe by transitioning between two circular profiles.', 'ques_type': 2, 'options': ['The &amp;quotEXTRUDE&amp;quot command can be used with adjustments to both profiles.', 'The &amp;quotLOFT&amp;quot command allows you to create a form by connecting multiple profiles along a path.', 'Solid objects cannot be created with varying cross sections.', 'Mesh objects are better suited for curved shapes, not lofting.'], 'score': 'The &amp;quotLOFT&amp;quot command allows you to create a form by connecting multiple profiles along a path.'}]</t>
+    <t>questions = [
+    {
+        "title": "You\u2019re tasked with rotating an object about point C from position A to position B in AutoCAD with all settings set to default. After selecting the rotate command and choosing point C as the base point, what rotation angle should you specify to achieve the desired result?",
+        "ques_type": 2,
+        "options": [
+            "90 degree",
+            "-90 degree",
+            "270 degree",
+            "Both -90 degree and 270 degree"
+        ],
+        "score": "Both -90 degree and 270 degree"
+    },
+    {
+        "title": "You\u2019re assigned to draw a set of lines, as shown below. Which command sequence would you use if the dynamic mode is ON?",
+        "ques_type": 2,
+        "options": [
+            "Type LINE, press Enter, type \u20182,3\u2019, press Enter, type \u201814,17\u2019, press Enter, type \u201818,7\u2019, press Enter",
+            "Type LINE, press Enter, type \u20182,3\u2019, press Enter, type \u201812,14\u2019, press Enter, type \u20184,-10\u2019, press Enter",
+            "Type LINE, press Enter, type \u20182,3\u2019, press Enter, type \u2018@14,17\u2019, press Enter, type \u2018@18,7\u2019, press Enter",
+            "Type LINE, press Enter, type \u20182,3\u2019, press Enter, type \u2018#14,17\u2019, press Enter, type \u2018#18,7\u2019, press Enter",
+            "Second and fourth options"
+        ],
+        "score": "Second and fourth options"
+    },
+    {
+        "title": "You need to create a symmetrical window design in your AutoCAD drawing. The design involves drawing half of the window and duplicating it to the other side.\u00a0Which tool is most appropriate for this task?",
+        "ques_type": 2,
+        "options": [
+            "Offset Tool",
+            "Mirror Tool",
+            "Trim Tool",
+            "Rotate Tool"
+        ],
+        "score": "Mirror Tool"
+    },
+    {
+        "title": "You need to create a curved pipe by transitioning between two circular profiles.",
+        "ques_type": 2,
+        "options": [
+            "The &amp;quotEXTRUDE&amp;quot command can be used with adjustments to both profiles.",
+            "The &amp;quotLOFT&amp;quot command allows you to create a form by connecting multiple profiles along a path.",
+            "Solid objects cannot be created with varying cross sections.",
+            "Mesh objects are better suited for curved shapes, not lofting."
+        ],
+        "score": "The &amp;quotLOFT&amp;quot command allows you to create a form by connecting multiple profiles along a path."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +94,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +394,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
